--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Cookies e afins.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Cookies e afins.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cookies Bauducco 96g Maxi</t>
+          <t>Biscoito Cookies Prestigio Nestle 60g Gotas De Chocolate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9a8f25c-82f8-41cb-b59f-ec3d3dbac848.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec62372e-be99-4b94-ad66-2fc5c749aef4.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891000370087</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cookies Bauducco 100g Original</t>
+          <t>Biscoito Cookie Tostines 60g Especiarias</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c971944a-0cb8-4deb-abee-31564cdd736a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04ca22bb-42c2-47f7-8999-9c6736f439ba.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891000434925</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cookies Bauducco 100g Chocolate</t>
+          <t>Biscoito Choco Cookies Serenata De Amor 100g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0be8487-cd6b-4835-86e4-d2b54026bcfe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4538bc96-ca28-41e7-84db-f091df616704.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891000415320</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Classic 60g Gotas De Chocolate</t>
+          <t>Bisc Choco Cookies Nestle 100g Peanut</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a23a39a3-a6e2-4a79-8672-457f60dd16cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b7537c3-6089-4593-862d-fa68d283a5ea.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891962054117</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Alpino Nestle 60g Gots Choc</t>
+          <t>Biscoito Garoto Cookies Caribe 60g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb861135-c502-482c-96af-f88eb3d3d328.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e3495b7-498a-4f69-8546-488d620e3543.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891000402894</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Passatempo Leite 60g</t>
+          <t>Biscoito Garoto Choco Cookies 100g Ao Leite</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d947e9af-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c16d35-825a-4390-9427-251fe222bf6d.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891000403150</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Galak Nestle 60g Got Ch Bco</t>
+          <t>Biscoito Cookies 365 Panco 500gr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd483da5-24d1-40d7-98ef-579e7b9ce16a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b08f4a8-6641-42cd-9231-15f01cf0d512.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891203021113</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Negresco 60g Choc Gots Baun</t>
+          <t>Cookies Linea 30g Cream</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a317c31-439f-4b33-873e-0c34fce6ff98.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0849b0c-f44c-4355-a9a6-b10c2965345b.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896001281448</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Prestigio Nestle 60g Gotas De Chocolate</t>
+          <t>Biscoito Cookies Jasmine 120g Castanha Do Para</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec62372e-be99-4b94-ad66-2fc5c749aef4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf090095-f50b-4f7f-ba00-1589fd197045.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896283001321</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Biscoito Coookies Lacta 80gr Ao Leite</t>
+          <t>Biscoito Cookies Jasmine 120g Limao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/feba4282-b632-4d71-949e-defadb27c9f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c2a6762-7bde-409a-b8da-7aed31c07b29.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896283000911</t>
         </is>
       </c>
     </row>
@@ -731,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Lacta 80gr Laka</t>
+          <t>Cookies Bauducco 100g Original</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,7 +796,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7f95028-1e1b-4990-b903-f89caf0d8ae9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c971944a-0cb8-4deb-abee-31564cdd736a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891962054117</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Biscoito Cookies 365 Panco 500gr</t>
+          <t>Cookies Bauducco 100g Chocolate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b08f4a8-6641-42cd-9231-15f01cf0d512.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0be8487-cd6b-4835-86e4-d2b54026bcfe.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891962054117</t>
         </is>
       </c>
     </row>
@@ -785,260 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biscoito Cookies Jasmine 120g Castanha Do Para</t>
+          <t>Cookies Bauducco 96g Maxi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf090095-f50b-4f7f-ba00-1589fd197045.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Biscoito Garoto Chocobiscuit 78g Ao Leite</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34f964bd-ac44-42d5-b6d9-8c4b9f829b85.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cookie Native 40g Aveia/cacau</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0672b9e-94be-4b92-8de2-9997b0f774bb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cookies Linea 30g Cream</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0849b0c-f44c-4355-a9a6-b10c2965345b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Biscoito Cookies Jasmine 120g Limao</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c2a6762-7bde-409a-b8da-7aed31c07b29.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bisc Choco Cookies Nestle 100g Peanut</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b7537c3-6089-4593-862d-fa68d283a5ea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Biscoito Garoto Choco Cookies 100g Ao Leite</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c16d35-825a-4390-9427-251fe222bf6d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Biscoito Choco Cookies Serenata De Amor 100g</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 7,29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4538bc96-ca28-41e7-84db-f091df616704.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Biscoito Garoto Cookies Caribe 60g</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e3495b7-498a-4f69-8546-488d620e3543.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cookies e afins</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Biscoito Cookie Tostines 60g Especiarias</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04ca22bb-42c2-47f7-8999-9c6736f439ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9a8f25c-82f8-41cb-b59f-ec3d3dbac848.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891962054124</t>
         </is>
       </c>
     </row>
